--- a/media/output/result/Production_Ncomplex_evaluation_weighted_edit_distance0.0,0.0,1.0.xlsx
+++ b/media/output/result/Production_Ncomplex_evaluation_weighted_edit_distance0.0,0.0,1.0.xlsx
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -685,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>

--- a/media/output/result/Production_Ncomplex_evaluation_weighted_edit_distance0.0,0.0,1.0.xlsx
+++ b/media/output/result/Production_Ncomplex_evaluation_weighted_edit_distance0.0,0.0,1.0.xlsx
@@ -476,25 +476,25 @@
         <v>44</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.1212121212121212</v>
       </c>
     </row>
     <row r="3">
@@ -505,25 +505,25 @@
         <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -534,25 +534,25 @@
         <v>36</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.1538461538461538</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>20</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>15</v>
@@ -624,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>14</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -685,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
